--- a/TOY01D.xlsx
+++ b/TOY01D.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="750" uniqueCount="315">
   <si>
     <t/>
   </si>
@@ -415,6 +415,171 @@
     <t>55</t>
   </si>
   <si>
+    <t>20140758</t>
+  </si>
+  <si>
+    <t>NT MY LOVELY PET</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>20140768</t>
+  </si>
+  <si>
+    <t>NT TRAVEL PET HOME</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>20133786</t>
+  </si>
+  <si>
+    <t>NORTH POP UP FR/FROG</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>20140755</t>
+  </si>
+  <si>
+    <t>NT WAR OF TANKS WM</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>20133771</t>
+  </si>
+  <si>
+    <t>NT HIP HOP BOY FGR</t>
+  </si>
+  <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>20140769</t>
+  </si>
+  <si>
+    <t>NT PLBACK AEROPLANE</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>20140756</t>
+  </si>
+  <si>
+    <t>NT SPACE STAR EXPLOR</t>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
+    <t>20133756</t>
+  </si>
+  <si>
+    <t>NORTH ARMY AIR FORCE</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>20140773</t>
+  </si>
+  <si>
+    <t>NT TOOL HOME ENGINR</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>20140757</t>
+  </si>
+  <si>
+    <t>NT A.FG ESCHATOLOGY</t>
+  </si>
+  <si>
+    <t>66</t>
+  </si>
+  <si>
+    <t>20133775</t>
+  </si>
+  <si>
+    <t>NORTH DIY ENGNE TRCK</t>
+  </si>
+  <si>
+    <t>67</t>
+  </si>
+  <si>
+    <t>20140777</t>
+  </si>
+  <si>
+    <t>NT PROFESION TOOLS</t>
+  </si>
+  <si>
+    <t>68</t>
+  </si>
+  <si>
+    <t>20133780</t>
+  </si>
+  <si>
+    <t>NRTHLND TOOL HELPER</t>
+  </si>
+  <si>
+    <t>69</t>
+  </si>
+  <si>
+    <t>20140759</t>
+  </si>
+  <si>
+    <t>NT PUPPY PLAY SET</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>20140767</t>
+  </si>
+  <si>
+    <t>NT SPCL POLICE LIGHT</t>
+  </si>
+  <si>
+    <t>71</t>
+  </si>
+  <si>
+    <t>20140329</t>
+  </si>
+  <si>
+    <t>BLOKEES HERO INFINTY</t>
+  </si>
+  <si>
+    <t>72</t>
+  </si>
+  <si>
+    <t>TG</t>
+  </si>
+  <si>
+    <t>20140687</t>
+  </si>
+  <si>
+    <t>BARBIE JET TAG JNX28</t>
+  </si>
+  <si>
+    <t>73</t>
+  </si>
+  <si>
+    <t>20140760</t>
+  </si>
+  <si>
+    <t>NT PARKOUR CUTE PET</t>
+  </si>
+  <si>
+    <t>74</t>
+  </si>
+  <si>
     <t>20123353</t>
   </si>
   <si>
@@ -427,6 +592,12 @@
     <t>EMCO POCKET MORPHERS</t>
   </si>
   <si>
+    <t>20140422</t>
+  </si>
+  <si>
+    <t>EMCO FUGGLER COLLECT</t>
+  </si>
+  <si>
     <t>20096148</t>
   </si>
   <si>
@@ -535,6 +706,18 @@
     <t>HW PEARL&amp;CHROME ASS</t>
   </si>
   <si>
+    <t>20140691</t>
+  </si>
+  <si>
+    <t>HW 58TH ANNIV HDH54</t>
+  </si>
+  <si>
+    <t>20140692</t>
+  </si>
+  <si>
+    <t>HW LNR NEW YEAR 26</t>
+  </si>
+  <si>
     <t>20007744</t>
   </si>
   <si>
@@ -559,6 +742,12 @@
     <t>HW HYBRID SPEED 2025</t>
   </si>
   <si>
+    <t>20140693</t>
+  </si>
+  <si>
+    <t>HW FAST&amp;F 25TH ANNIV</t>
+  </si>
+  <si>
     <t>20133548</t>
   </si>
   <si>
@@ -581,6 +770,18 @@
   </si>
   <si>
     <t>HW NEON SPEED HLH72</t>
+  </si>
+  <si>
+    <t>20140694</t>
+  </si>
+  <si>
+    <t>HW THE HOT ONES</t>
+  </si>
+  <si>
+    <t>20140695</t>
+  </si>
+  <si>
+    <t>HW PANTONE JKY47</t>
   </si>
   <si>
     <t>20129243</t>
@@ -1147,7 +1348,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F101"/>
+  <dimension ref="A1:F125"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
@@ -2049,10 +2250,10 @@
         <v>3</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>4</v>
+        <v>136</v>
       </c>
       <c r="F45" s="1" t="s">
         <v>5</v>
@@ -2060,19 +2261,19 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>8</v>
+        <v>139</v>
       </c>
       <c r="F46" s="1" t="s">
         <v>5</v>
@@ -2080,19 +2281,19 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>11</v>
+        <v>142</v>
       </c>
       <c r="F47" s="1" t="s">
         <v>5</v>
@@ -2100,19 +2301,19 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>14</v>
+        <v>145</v>
       </c>
       <c r="F48" s="1" t="s">
         <v>5</v>
@@ -2120,19 +2321,19 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>17</v>
+        <v>148</v>
       </c>
       <c r="F49" s="1" t="s">
         <v>5</v>
@@ -2140,19 +2341,19 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>23</v>
+        <v>151</v>
       </c>
       <c r="F50" s="1" t="s">
         <v>5</v>
@@ -2160,19 +2361,19 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>26</v>
+        <v>154</v>
       </c>
       <c r="F51" s="1" t="s">
         <v>5</v>
@@ -2180,19 +2381,19 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>4</v>
+        <v>157</v>
       </c>
       <c r="F52" s="1" t="s">
         <v>5</v>
@@ -2200,19 +2401,19 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>8</v>
+        <v>160</v>
       </c>
       <c r="F53" s="1" t="s">
         <v>5</v>
@@ -2220,19 +2421,19 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>11</v>
+        <v>163</v>
       </c>
       <c r="F54" s="1" t="s">
         <v>5</v>
@@ -2240,19 +2441,19 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>14</v>
+        <v>166</v>
       </c>
       <c r="F55" s="1" t="s">
         <v>5</v>
@@ -2260,19 +2461,19 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>17</v>
+        <v>169</v>
       </c>
       <c r="F56" s="1" t="s">
         <v>5</v>
@@ -2280,19 +2481,19 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>158</v>
+        <v>170</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>159</v>
+        <v>171</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>20</v>
+        <v>172</v>
       </c>
       <c r="F57" s="1" t="s">
         <v>5</v>
@@ -2300,39 +2501,39 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>160</v>
+        <v>173</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>161</v>
+        <v>174</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>23</v>
+        <v>175</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>118</v>
+        <v>5</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>162</v>
+        <v>176</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>163</v>
+        <v>177</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>4</v>
+        <v>178</v>
       </c>
       <c r="F59" s="1" t="s">
         <v>5</v>
@@ -2340,79 +2541,79 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>164</v>
+        <v>179</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>165</v>
+        <v>180</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>4</v>
+        <v>181</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>5</v>
+        <v>182</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>166</v>
+        <v>183</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>167</v>
+        <v>184</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>4</v>
+        <v>185</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>5</v>
+        <v>75</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>168</v>
+        <v>186</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>169</v>
+        <v>187</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>4</v>
+        <v>188</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>5</v>
+        <v>118</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>170</v>
+        <v>189</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>171</v>
+        <v>190</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F63" s="1" t="s">
         <v>5</v>
@@ -2420,16 +2621,16 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>172</v>
+        <v>191</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>173</v>
+        <v>192</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E64" s="1" t="s">
         <v>8</v>
@@ -2440,36 +2641,36 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>174</v>
+        <v>193</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>175</v>
+        <v>194</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>5</v>
+        <v>182</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>176</v>
+        <v>195</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>177</v>
+        <v>196</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E66" s="1" t="s">
         <v>11</v>
@@ -2480,19 +2681,19 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>178</v>
+        <v>197</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>179</v>
+        <v>198</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D67" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E67" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="E67" s="1" t="s">
-        <v>11</v>
       </c>
       <c r="F67" s="1" t="s">
         <v>5</v>
@@ -2500,19 +2701,19 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>180</v>
+        <v>199</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>181</v>
+        <v>200</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F68" s="1" t="s">
         <v>5</v>
@@ -2520,19 +2721,19 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>182</v>
+        <v>201</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>183</v>
+        <v>202</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="F69" s="1" t="s">
         <v>5</v>
@@ -2540,19 +2741,19 @@
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>184</v>
+        <v>203</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>185</v>
+        <v>204</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="F70" s="1" t="s">
         <v>5</v>
@@ -2560,19 +2761,19 @@
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>186</v>
+        <v>205</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>187</v>
+        <v>206</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="F71" s="1" t="s">
         <v>5</v>
@@ -2580,19 +2781,19 @@
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>188</v>
+        <v>207</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>189</v>
+        <v>208</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="F72" s="1" t="s">
         <v>5</v>
@@ -2600,19 +2801,19 @@
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>191</v>
+        <v>210</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F73" s="1" t="s">
         <v>5</v>
@@ -2620,19 +2821,19 @@
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>192</v>
+        <v>211</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>193</v>
+        <v>212</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D74" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E74" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="E74" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="F74" s="1" t="s">
         <v>5</v>
@@ -2640,19 +2841,19 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>194</v>
+        <v>213</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>195</v>
+        <v>214</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="F75" s="1" t="s">
         <v>5</v>
@@ -2660,19 +2861,19 @@
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>196</v>
+        <v>215</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>197</v>
+        <v>216</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="F76" s="1" t="s">
         <v>5</v>
@@ -2680,39 +2881,39 @@
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>198</v>
+        <v>217</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>5</v>
+        <v>118</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>200</v>
+        <v>219</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>201</v>
+        <v>220</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F78" s="1" t="s">
         <v>5</v>
@@ -2720,19 +2921,19 @@
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>202</v>
+        <v>221</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>203</v>
+        <v>222</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F79" s="1" t="s">
         <v>5</v>
@@ -2740,19 +2941,19 @@
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>204</v>
+        <v>223</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>205</v>
+        <v>224</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="F80" s="1" t="s">
         <v>5</v>
@@ -2760,19 +2961,19 @@
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>206</v>
+        <v>225</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>207</v>
+        <v>226</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="F81" s="1" t="s">
         <v>5</v>
@@ -2780,19 +2981,19 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>208</v>
+        <v>227</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>209</v>
+        <v>228</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="F82" s="1" t="s">
         <v>5</v>
@@ -2800,19 +3001,19 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>210</v>
+        <v>229</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>211</v>
+        <v>230</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="F83" s="1" t="s">
         <v>5</v>
@@ -2820,36 +3021,36 @@
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>212</v>
+        <v>231</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>213</v>
+        <v>232</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>5</v>
+        <v>75</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>214</v>
+        <v>233</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>215</v>
+        <v>234</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E85" s="1" t="s">
         <v>8</v>
@@ -2860,16 +3061,16 @@
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>216</v>
+        <v>235</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>217</v>
+        <v>236</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E86" s="1" t="s">
         <v>11</v>
@@ -2880,19 +3081,19 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>218</v>
+        <v>237</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>219</v>
+        <v>238</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F87" s="1" t="s">
         <v>5</v>
@@ -2900,19 +3101,19 @@
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>220</v>
+        <v>239</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>221</v>
+        <v>240</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F88" s="1" t="s">
         <v>5</v>
@@ -2920,39 +3121,39 @@
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>222</v>
+        <v>241</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>223</v>
+        <v>242</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>118</v>
+        <v>5</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>224</v>
+        <v>243</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>225</v>
+        <v>244</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="F90" s="1" t="s">
         <v>5</v>
@@ -2960,19 +3161,19 @@
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>226</v>
+        <v>245</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>227</v>
+        <v>246</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="F91" s="1" t="s">
         <v>5</v>
@@ -2980,19 +3181,19 @@
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>228</v>
+        <v>247</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="F92" s="1" t="s">
         <v>5</v>
@@ -3000,19 +3201,19 @@
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>230</v>
+        <v>249</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>231</v>
+        <v>250</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="F93" s="1" t="s">
         <v>5</v>
@@ -3020,19 +3221,19 @@
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>232</v>
+        <v>251</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>233</v>
+        <v>252</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F94" s="1" t="s">
         <v>5</v>
@@ -3040,59 +3241,59 @@
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>234</v>
+        <v>253</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>235</v>
+        <v>254</v>
       </c>
       <c r="C95" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="E95" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>5</v>
+        <v>75</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>236</v>
+        <v>255</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>237</v>
+        <v>256</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>5</v>
+        <v>75</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>238</v>
+        <v>257</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>239</v>
+        <v>258</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F97" s="1" t="s">
         <v>5</v>
@@ -3100,19 +3301,19 @@
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>240</v>
+        <v>259</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>241</v>
+        <v>260</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F98" s="1" t="s">
         <v>5</v>
@@ -3120,19 +3321,19 @@
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
-        <v>242</v>
+        <v>261</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>243</v>
+        <v>262</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D99" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E99" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="E99" s="1" t="s">
-        <v>29</v>
       </c>
       <c r="F99" s="1" t="s">
         <v>5</v>
@@ -3140,19 +3341,19 @@
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>244</v>
+        <v>263</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>245</v>
+        <v>264</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="F100" s="1" t="s">
         <v>5</v>
@@ -3160,21 +3361,501 @@
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>246</v>
+        <v>265</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>247</v>
+        <v>266</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D101" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F101" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A102" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F102" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A103" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F103" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A104" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F104" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A105" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E105" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F105" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A106" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E106" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F106" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A107" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F107" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A108" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F108" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A109" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E109" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F109" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A110" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E110" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F110" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A111" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F111" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A112" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E112" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F112" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A113" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E113" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F113" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A114" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E114" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E101" s="1" t="s">
+      <c r="F114" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A115" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E115" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F115" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A116" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D116" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E116" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F116" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A117" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E117" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F117" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A118" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D118" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E118" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F118" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A119" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D119" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E119" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F119" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A120" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D120" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E120" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F120" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A121" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D121" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E121" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F121" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A122" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D122" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E122" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F122" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A123" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D123" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E123" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F123" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A124" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D124" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E124" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F124" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A125" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D125" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E125" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F101" s="1" t="s">
+      <c r="F125" s="1" t="s">
         <v>5</v>
       </c>
     </row>

--- a/TOY01D.xlsx
+++ b/TOY01D.xlsx
@@ -11,297 +11,840 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="750" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="756" uniqueCount="296">
   <si>
     <t/>
   </si>
   <si>
+    <t>20126490</t>
+  </si>
+  <si>
+    <t>PRLY/PD BLND PCK AST</t>
+  </si>
+  <si>
+    <t>TOY01D</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>PT</t>
+  </si>
+  <si>
+    <t>20053378</t>
+  </si>
+  <si>
+    <t>HELLO KITTY EGG 3345</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>20105569</t>
+  </si>
+  <si>
+    <t>EMCO DORAEMON MN FGR</t>
+  </si>
+  <si>
+    <t>20131699</t>
+  </si>
+  <si>
+    <t>EMCO PKEMON FACE OFF</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>20102648</t>
+  </si>
+  <si>
+    <t>EMCO SLIME TIME</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>20111543</t>
+  </si>
+  <si>
+    <t>WIKI IDM DLVRY TRUCK</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>20124279</t>
+  </si>
+  <si>
+    <t>WIKI BRI DLVRY VHCLE</t>
+  </si>
+  <si>
+    <t>20111544</t>
+  </si>
+  <si>
+    <t>WIKI I-MOBIL IDM TRK</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>20098313</t>
+  </si>
+  <si>
+    <t>WIKI IDM STORE BRICK</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>20135972</t>
+  </si>
+  <si>
+    <t>PLYDOH SNGLE CAN ASS</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>20052530</t>
+  </si>
+  <si>
+    <t>PLAY DOH MINI 4 PACK</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>20134962</t>
+  </si>
+  <si>
+    <t>RHINO MI GEMESH ASST</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>20132254</t>
+  </si>
+  <si>
+    <t>WIKI IDM UNFRM SRIES</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>20133201</t>
+  </si>
+  <si>
+    <t>NRTHLND BRICK SERIES</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>20124283</t>
+  </si>
+  <si>
+    <t>WIKI REMOTE CTRL ASS</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>20133202</t>
+  </si>
+  <si>
+    <t>NRTHLND DIECAST SERI</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>20131391</t>
+  </si>
+  <si>
+    <t>NRTHLND PLAYSET SERI</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>20130556</t>
+  </si>
+  <si>
+    <t>WIKI BOYS SERIES</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>20140760</t>
+  </si>
+  <si>
+    <t>NT PARKOUR CUTE PET</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>PT,(E-1B)</t>
+  </si>
+  <si>
+    <t>20116479</t>
+  </si>
+  <si>
+    <t>SANRIO NECKLACE CHRT</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>20128425</t>
+  </si>
+  <si>
+    <t>WIKI DFRMTN RBOT ASS</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>20128423</t>
+  </si>
+  <si>
+    <t>WIKI VRBLE CMBNATION</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>20131019</t>
+  </si>
+  <si>
+    <t>JADA DISNEY FIGURE</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>20119105</t>
+  </si>
+  <si>
+    <t>BIMA S HERO MASK MDR</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>RT</t>
+  </si>
+  <si>
+    <t>20102474</t>
+  </si>
+  <si>
+    <t>JRSC WORLD SNAP SQAD</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>20132056</t>
+  </si>
+  <si>
+    <t>TROLLS BAND TGTHR FG</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>20126000</t>
+  </si>
+  <si>
+    <t>MTCHBX MBL JPN ASS</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>20122578</t>
+  </si>
+  <si>
+    <t>CAT LITTLE MACHINES</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>20135143</t>
+  </si>
+  <si>
+    <t>VR TOYS ALIEN SLIME</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>20127235</t>
+  </si>
+  <si>
+    <t>QMAN PKMON BRICK ASS</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>20122574</t>
+  </si>
+  <si>
+    <t>H/W MONSTER TRUCK</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>20138002</t>
+  </si>
+  <si>
+    <t>PIXAR IMPULSE  MINIS</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>20077551</t>
+  </si>
+  <si>
+    <t>EMCO POCKET MORPHERS</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>20140329</t>
+  </si>
+  <si>
+    <t>BLOKEES HERO INFINTY</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>20134674</t>
+  </si>
+  <si>
+    <t>PLYDH ESSNTL CLR 10S</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>20132321</t>
+  </si>
+  <si>
+    <t>VR TOY BLN AIR JMB2S</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>20124280</t>
+  </si>
+  <si>
+    <t>WIKI DC IDM  DLVR TR</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>20135483</t>
+  </si>
+  <si>
+    <t>EMCO VRTX ROPE LOOPR</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>20138689</t>
+  </si>
+  <si>
+    <t>EMCO INFINI-TWIST PY</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>RT,(E-1B)</t>
+  </si>
+  <si>
+    <t>20135435</t>
+  </si>
+  <si>
+    <t>STMBL GY 3D MN FGURE</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>20138254</t>
+  </si>
+  <si>
+    <t>JURASIC WORLD FIDGET</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>20134460</t>
+  </si>
+  <si>
+    <t>MEGA PKEMON POKEBALL</t>
+  </si>
+  <si>
+    <t>20136547</t>
+  </si>
+  <si>
+    <t>MNCRAFT MN EGG HXT64</t>
+  </si>
+  <si>
+    <t>20113009</t>
+  </si>
+  <si>
+    <t>SM DC SPR.HR FGR ASS</t>
+  </si>
+  <si>
+    <t>20116752</t>
+  </si>
+  <si>
+    <t>BIMA S FGRN 17CM MDR</t>
+  </si>
+  <si>
+    <t>20124284</t>
+  </si>
+  <si>
+    <t>WIKI BUBBLE GUN ASST</t>
+  </si>
+  <si>
+    <t>20092220</t>
+  </si>
+  <si>
+    <t>PLAY DOH VALUE SET</t>
+  </si>
+  <si>
+    <t>20135015</t>
+  </si>
+  <si>
+    <t>AMARA STRL MK UP KIT</t>
+  </si>
+  <si>
+    <t>20140687</t>
+  </si>
+  <si>
+    <t>BARBIE JET TAG JNX28</t>
+  </si>
+  <si>
+    <t>20133852</t>
+  </si>
+  <si>
+    <t>RHINO SLIME DNT</t>
+  </si>
+  <si>
+    <t>20133723</t>
+  </si>
+  <si>
+    <t>RHINO SWEET LICIOUS</t>
+  </si>
+  <si>
+    <t>20133754</t>
+  </si>
+  <si>
+    <t>NORTHLAND GIRL SERIE</t>
+  </si>
+  <si>
+    <t>20095866</t>
+  </si>
+  <si>
+    <t>WIKI GIRL ASST SERI</t>
+  </si>
+  <si>
+    <t>20139049</t>
+  </si>
+  <si>
+    <t>BARBIE CHRM&amp;BRC JML5</t>
+  </si>
+  <si>
+    <t>20134161</t>
+  </si>
+  <si>
+    <t>EMCO BLING BANDZ</t>
+  </si>
+  <si>
+    <t>20137817</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RHINO NAIL UNICORN  </t>
+  </si>
+  <si>
+    <t>20132776</t>
+  </si>
+  <si>
+    <t>HW CMPACT CASE HYJ70</t>
+  </si>
+  <si>
+    <t>20124309</t>
+  </si>
+  <si>
+    <t>SM TECH DECK BASIC</t>
+  </si>
+  <si>
+    <t>20123261</t>
+  </si>
+  <si>
+    <t>MTCHBX SKY BST+PLY</t>
+  </si>
+  <si>
+    <t>20007929</t>
+  </si>
+  <si>
+    <t>MATCHBOX MOBIL 30782</t>
+  </si>
+  <si>
+    <t>20111564</t>
+  </si>
+  <si>
+    <t>MTCHBOX MV.PRT FWD28</t>
+  </si>
+  <si>
+    <t>20106824</t>
+  </si>
+  <si>
+    <t>MNSTER JAM VL.TRUCK</t>
+  </si>
+  <si>
+    <t>20123353</t>
+  </si>
+  <si>
+    <t>RKC ROLL SPD METAL</t>
+  </si>
+  <si>
+    <t>10011593</t>
+  </si>
+  <si>
+    <t>HOT WHEELS MBL BASIC</t>
+  </si>
+  <si>
+    <t>20007744</t>
+  </si>
+  <si>
+    <t>MOBIL HOT/WL ACL2025</t>
+  </si>
+  <si>
+    <t>20113536</t>
+  </si>
+  <si>
+    <t>H/W FLYING CSTM 2021</t>
+  </si>
+  <si>
+    <t>20124057</t>
+  </si>
+  <si>
+    <t>HW PEARL&amp;CHROME ASS</t>
+  </si>
+  <si>
+    <t>20137630</t>
+  </si>
+  <si>
+    <t>HW VINTAGE ICON 2025</t>
+  </si>
+  <si>
+    <t>20140692</t>
+  </si>
+  <si>
+    <t>HW LNR NEW YEAR 26</t>
+  </si>
+  <si>
+    <t>20028329</t>
+  </si>
+  <si>
+    <t>H.WHL COLOUR SHIFTER</t>
+  </si>
+  <si>
+    <t>20109719</t>
+  </si>
+  <si>
+    <t>HW SHORT BLSTER 2021</t>
+  </si>
+  <si>
+    <t>20129243</t>
+  </si>
+  <si>
+    <t>HW FAST&amp;FURS.HNR88</t>
+  </si>
+  <si>
+    <t>20137629</t>
+  </si>
+  <si>
+    <t>HW SURF UP 2025</t>
+  </si>
+  <si>
+    <t>20140693</t>
+  </si>
+  <si>
+    <t>HW FAST&amp;F 25TH ANNIV</t>
+  </si>
+  <si>
+    <t>20140695</t>
+  </si>
+  <si>
+    <t>HW PANTONE JKY47</t>
+  </si>
+  <si>
+    <t>20130066</t>
+  </si>
+  <si>
+    <t>HW ULTRA HOTS ASS</t>
+  </si>
+  <si>
+    <t>20133548</t>
+  </si>
+  <si>
+    <t>HW VINTAGE RC HRT81</t>
+  </si>
+  <si>
+    <t>20133725</t>
+  </si>
+  <si>
+    <t>HW J-IMPORT 2024</t>
+  </si>
+  <si>
+    <t>20133726</t>
+  </si>
+  <si>
+    <t>HW ULTRA HOTS HDG52</t>
+  </si>
+  <si>
+    <t>20140690</t>
+  </si>
+  <si>
+    <t>HW COMPACT KINGS</t>
+  </si>
+  <si>
+    <t>20133728</t>
+  </si>
+  <si>
+    <t>HW PEARL&amp;CHRME HDH54</t>
+  </si>
+  <si>
+    <t>20136215</t>
+  </si>
+  <si>
+    <t>HW FAST&amp;FR2025 HNR88</t>
+  </si>
+  <si>
+    <t>20137358</t>
+  </si>
+  <si>
+    <t>HW VINTAGE RCG HRT81</t>
+  </si>
+  <si>
+    <t>20137359</t>
+  </si>
+  <si>
+    <t>HW NEON SPEED HLH72</t>
+  </si>
+  <si>
+    <t>20137628</t>
+  </si>
+  <si>
+    <t>HW PEARL&amp;CHROME 2025</t>
+  </si>
+  <si>
+    <t>20137631</t>
+  </si>
+  <si>
+    <t>HW HYBRID SPEED 2025</t>
+  </si>
+  <si>
+    <t>20140691</t>
+  </si>
+  <si>
+    <t>HW 58TH ANNIV HDH54</t>
+  </si>
+  <si>
+    <t>20140694</t>
+  </si>
+  <si>
+    <t>HW THE HOT ONES</t>
+  </si>
+  <si>
+    <t>20094698</t>
+  </si>
+  <si>
+    <t>HW MONST.TRUCK FYJ44</t>
+  </si>
+  <si>
+    <t>20134458</t>
+  </si>
+  <si>
+    <t>T&amp;F PLSTC ENGINE ASS</t>
+  </si>
+  <si>
+    <t>20138914</t>
+  </si>
+  <si>
+    <t>EMCO KIX BRIX</t>
+  </si>
+  <si>
+    <t>20135979</t>
+  </si>
+  <si>
+    <t>APOLO LTTLE BOTS ASS</t>
+  </si>
+  <si>
+    <t>20096148</t>
+  </si>
+  <si>
+    <t>WIKI ALPHABET ROBOT</t>
+  </si>
+  <si>
+    <t>20138915</t>
+  </si>
+  <si>
+    <t>APOLO BALON QUU 20G</t>
+  </si>
+  <si>
+    <t>20140422</t>
+  </si>
+  <si>
+    <t>EMCO FUGGLER COLLECT</t>
+  </si>
+  <si>
+    <t>TG</t>
+  </si>
+  <si>
+    <t>20128424</t>
+  </si>
+  <si>
+    <t>WIKI MNSTER STUN CAR</t>
+  </si>
+  <si>
+    <t>20074122</t>
+  </si>
+  <si>
+    <t>EMCO HOT SHOTS BOLT</t>
+  </si>
+  <si>
+    <t>20133756</t>
+  </si>
+  <si>
+    <t>NORTH ARMY AIR FORCE</t>
+  </si>
+  <si>
+    <t>20137553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BLOKEES TRANSFORMER </t>
+  </si>
+  <si>
+    <t>20140758</t>
+  </si>
+  <si>
+    <t>NT MY LOVELY PET</t>
+  </si>
+  <si>
+    <t>20122573</t>
+  </si>
+  <si>
+    <t>EMCO PAT MYSTERY BOX</t>
+  </si>
+  <si>
+    <t>20127783</t>
+  </si>
+  <si>
+    <t>APOLO HEAVY MACHNERY</t>
+  </si>
+  <si>
+    <t>20136677</t>
+  </si>
+  <si>
+    <t>EMCO SANRIO CHARACTR</t>
+  </si>
+  <si>
+    <t>20140768</t>
+  </si>
+  <si>
+    <t>NT TRAVEL PET HOME</t>
+  </si>
+  <si>
     <t>20095864</t>
   </si>
   <si>
     <t>WIKI D.CAST REAL CAR</t>
   </si>
   <si>
-    <t>TOY01D</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>PT</t>
-  </si>
-  <si>
-    <t>20095866</t>
-  </si>
-  <si>
-    <t>WIKI GIRL ASST SERI</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>20122574</t>
-  </si>
-  <si>
-    <t>H/W MONSTER TRUCK</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>20122573</t>
-  </si>
-  <si>
-    <t>EMCO PAT MYSTERY BOX</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>20123261</t>
-  </si>
-  <si>
-    <t>MTCHBX SKY BST+PLY</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>20124280</t>
-  </si>
-  <si>
-    <t>WIKI DC IDM  DLVR TR</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>20124283</t>
-  </si>
-  <si>
-    <t>WIKI REMOTE CTRL ASS</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>20124284</t>
-  </si>
-  <si>
-    <t>WIKI BUBBLE GUN ASST</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>20127235</t>
-  </si>
-  <si>
-    <t>QMAN PKMON BRICK ASS</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>20127783</t>
-  </si>
-  <si>
-    <t>APOLO HEAVY MACHNERY</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>20128423</t>
-  </si>
-  <si>
-    <t>WIKI VRBLE CMBNATION</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>20128424</t>
-  </si>
-  <si>
-    <t>WIKI MNSTER STUN CAR</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>20128425</t>
-  </si>
-  <si>
-    <t>WIKI DFRMTN RBOT ASS</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>20130556</t>
-  </si>
-  <si>
-    <t>WIKI BOYS SERIES</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>20131019</t>
-  </si>
-  <si>
-    <t>JADA DISNEY FIGURE</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>20126000</t>
-  </si>
-  <si>
-    <t>MTCHBX MBL JPN ASS</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>20116479</t>
-  </si>
-  <si>
-    <t>SANRIO NECKLACE CHRT</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>20132321</t>
-  </si>
-  <si>
-    <t>VR TOY BLN AIR JMB2S</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>20131391</t>
-  </si>
-  <si>
-    <t>NRTHLND PLAYSET SERI</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>20122578</t>
-  </si>
-  <si>
-    <t>CAT LITTLE MACHINES</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>20133201</t>
-  </si>
-  <si>
-    <t>NRTHLND BRICK SERIES</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>20133202</t>
-  </si>
-  <si>
-    <t>NRTHLND DIECAST SERI</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>20133852</t>
-  </si>
-  <si>
-    <t>RHINO SLIME DNT</t>
-  </si>
-  <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t>20119105</t>
-  </si>
-  <si>
-    <t>BIMA S HERO MASK MDR</t>
-  </si>
-  <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>RT</t>
-  </si>
-  <si>
-    <t>20133754</t>
-  </si>
-  <si>
-    <t>NORTHLAND GIRL SERIE</t>
-  </si>
-  <si>
-    <t>34</t>
-  </si>
-  <si>
-    <t>20102474</t>
-  </si>
-  <si>
-    <t>JRSC WORLD SNAP SQAD</t>
-  </si>
-  <si>
-    <t>37</t>
-  </si>
-  <si>
-    <t>20135483</t>
-  </si>
-  <si>
-    <t>EMCO VRTX ROPE LOOPR</t>
-  </si>
-  <si>
-    <t>38</t>
-  </si>
-  <si>
-    <t>20124279</t>
-  </si>
-  <si>
-    <t>WIKI BRI DLVRY VHCLE</t>
-  </si>
-  <si>
-    <t>39</t>
-  </si>
-  <si>
-    <t>20111543</t>
-  </si>
-  <si>
-    <t>WIKI IDM DLVRY TRUCK</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>20111544</t>
-  </si>
-  <si>
-    <t>WIKI I-MOBIL IDM TRK</t>
-  </si>
-  <si>
-    <t>41</t>
-  </si>
-  <si>
-    <t>20135435</t>
-  </si>
-  <si>
-    <t>STMBL GY 3D MN FGURE</t>
-  </si>
-  <si>
-    <t>42</t>
+    <t>20129931</t>
+  </si>
+  <si>
+    <t>APOLO WOBBLE ASST</t>
+  </si>
+  <si>
+    <t>20133786</t>
+  </si>
+  <si>
+    <t>NORTH POP UP FR/FROG</t>
+  </si>
+  <si>
+    <t>20140767</t>
+  </si>
+  <si>
+    <t>NT SPCL POLICE LIGHT</t>
+  </si>
+  <si>
+    <t>20133041</t>
+  </si>
+  <si>
+    <t>RHINO CTCH THE MNSTR</t>
+  </si>
+  <si>
+    <t>20139367</t>
+  </si>
+  <si>
+    <t>ZIGO ULTRAMAN DIY</t>
+  </si>
+  <si>
+    <t>20140755</t>
+  </si>
+  <si>
+    <t>NT WAR OF TANKS WM</t>
+  </si>
+  <si>
+    <t>20140773</t>
+  </si>
+  <si>
+    <t>NT TOOL HOME ENGINR</t>
+  </si>
+  <si>
+    <t>20133771</t>
+  </si>
+  <si>
+    <t>NT HIP HOP BOY FGR</t>
+  </si>
+  <si>
+    <t>20138913</t>
+  </si>
+  <si>
+    <t>EMCO POCKET TITANS</t>
+  </si>
+  <si>
+    <t>20139395</t>
+  </si>
+  <si>
+    <t>EMCO WASHY KITTIES</t>
+  </si>
+  <si>
+    <t>20140757</t>
+  </si>
+  <si>
+    <t>NT A.FG ESCHATOLOGY</t>
   </si>
   <si>
     <t>20096159</t>
@@ -310,154 +853,16 @@
     <t>EMCO POP A TOY</t>
   </si>
   <si>
-    <t>43</t>
-  </si>
-  <si>
-    <t>20135972</t>
-  </si>
-  <si>
-    <t>PLYDOH SNGLE CAN ASS</t>
-  </si>
-  <si>
-    <t>44</t>
-  </si>
-  <si>
-    <t>20094698</t>
-  </si>
-  <si>
-    <t>HW MONST.TRUCK FYJ44</t>
-  </si>
-  <si>
-    <t>45</t>
-  </si>
-  <si>
-    <t>20136677</t>
-  </si>
-  <si>
-    <t>EMCO SANRIO CHARACTR</t>
-  </si>
-  <si>
-    <t>47</t>
-  </si>
-  <si>
-    <t>20137553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BLOKEES TRANSFORMER </t>
-  </si>
-  <si>
-    <t>48</t>
-  </si>
-  <si>
-    <t>20138002</t>
-  </si>
-  <si>
-    <t>PIXAR IMPULSE  MINIS</t>
-  </si>
-  <si>
-    <t>49</t>
-  </si>
-  <si>
-    <t>20138914</t>
-  </si>
-  <si>
-    <t>EMCO KIX BRIX</t>
-  </si>
-  <si>
-    <t>50</t>
-  </si>
-  <si>
-    <t>PT,(E-1B)</t>
-  </si>
-  <si>
-    <t>20138913</t>
-  </si>
-  <si>
-    <t>EMCO POCKET TITANS</t>
-  </si>
-  <si>
-    <t>51</t>
-  </si>
-  <si>
-    <t>20138915</t>
-  </si>
-  <si>
-    <t>APOLO BALON QUU 20G</t>
-  </si>
-  <si>
-    <t>52</t>
-  </si>
-  <si>
-    <t>20135979</t>
-  </si>
-  <si>
-    <t>APOLO LTTLE BOTS ASS</t>
-  </si>
-  <si>
-    <t>53</t>
-  </si>
-  <si>
-    <t>20139367</t>
-  </si>
-  <si>
-    <t>ZIGO ULTRAMAN DIY</t>
-  </si>
-  <si>
-    <t>54</t>
-  </si>
-  <si>
-    <t>20139395</t>
-  </si>
-  <si>
-    <t>EMCO WASHY KITTIES</t>
-  </si>
-  <si>
-    <t>55</t>
-  </si>
-  <si>
-    <t>20140758</t>
-  </si>
-  <si>
-    <t>NT MY LOVELY PET</t>
-  </si>
-  <si>
-    <t>57</t>
-  </si>
-  <si>
-    <t>20140768</t>
-  </si>
-  <si>
-    <t>NT TRAVEL PET HOME</t>
-  </si>
-  <si>
-    <t>58</t>
-  </si>
-  <si>
-    <t>20133786</t>
-  </si>
-  <si>
-    <t>NORTH POP UP FR/FROG</t>
-  </si>
-  <si>
-    <t>59</t>
-  </si>
-  <si>
-    <t>20140755</t>
-  </si>
-  <si>
-    <t>NT WAR OF TANKS WM</t>
-  </si>
-  <si>
-    <t>60</t>
-  </si>
-  <si>
-    <t>20133771</t>
-  </si>
-  <si>
-    <t>NT HIP HOP BOY FGR</t>
-  </si>
-  <si>
-    <t>61</t>
+    <t>20133775</t>
+  </si>
+  <si>
+    <t>NORTH DIY ENGNE TRCK</t>
+  </si>
+  <si>
+    <t>20140759</t>
+  </si>
+  <si>
+    <t>NT PUPPY PLAY SET</t>
   </si>
   <si>
     <t>20140769</t>
@@ -466,7 +871,10 @@
     <t>NT PLBACK AEROPLANE</t>
   </si>
   <si>
-    <t>62</t>
+    <t>20080091</t>
+  </si>
+  <si>
+    <t>APOLO MSZ PULLBACK</t>
   </si>
   <si>
     <t>20140756</t>
@@ -475,43 +883,10 @@
     <t>NT SPACE STAR EXPLOR</t>
   </si>
   <si>
-    <t>63</t>
-  </si>
-  <si>
-    <t>20133756</t>
-  </si>
-  <si>
-    <t>NORTH ARMY AIR FORCE</t>
-  </si>
-  <si>
-    <t>64</t>
-  </si>
-  <si>
-    <t>20140773</t>
-  </si>
-  <si>
-    <t>NT TOOL HOME ENGINR</t>
-  </si>
-  <si>
-    <t>65</t>
-  </si>
-  <si>
-    <t>20140757</t>
-  </si>
-  <si>
-    <t>NT A.FG ESCHATOLOGY</t>
-  </si>
-  <si>
-    <t>66</t>
-  </si>
-  <si>
-    <t>20133775</t>
-  </si>
-  <si>
-    <t>NORTH DIY ENGNE TRCK</t>
-  </si>
-  <si>
-    <t>67</t>
+    <t>20117276</t>
+  </si>
+  <si>
+    <t>HOT WHLS PULL BACK</t>
   </si>
   <si>
     <t>20140777</t>
@@ -520,442 +895,10 @@
     <t>NT PROFESION TOOLS</t>
   </si>
   <si>
-    <t>68</t>
-  </si>
-  <si>
     <t>20133780</t>
   </si>
   <si>
     <t>NRTHLND TOOL HELPER</t>
-  </si>
-  <si>
-    <t>69</t>
-  </si>
-  <si>
-    <t>20140759</t>
-  </si>
-  <si>
-    <t>NT PUPPY PLAY SET</t>
-  </si>
-  <si>
-    <t>70</t>
-  </si>
-  <si>
-    <t>20140767</t>
-  </si>
-  <si>
-    <t>NT SPCL POLICE LIGHT</t>
-  </si>
-  <si>
-    <t>71</t>
-  </si>
-  <si>
-    <t>20140329</t>
-  </si>
-  <si>
-    <t>BLOKEES HERO INFINTY</t>
-  </si>
-  <si>
-    <t>72</t>
-  </si>
-  <si>
-    <t>TG</t>
-  </si>
-  <si>
-    <t>20140687</t>
-  </si>
-  <si>
-    <t>BARBIE JET TAG JNX28</t>
-  </si>
-  <si>
-    <t>73</t>
-  </si>
-  <si>
-    <t>20140760</t>
-  </si>
-  <si>
-    <t>NT PARKOUR CUTE PET</t>
-  </si>
-  <si>
-    <t>74</t>
-  </si>
-  <si>
-    <t>20123353</t>
-  </si>
-  <si>
-    <t>RKC ROLL SPD METAL</t>
-  </si>
-  <si>
-    <t>20077551</t>
-  </si>
-  <si>
-    <t>EMCO POCKET MORPHERS</t>
-  </si>
-  <si>
-    <t>20140422</t>
-  </si>
-  <si>
-    <t>EMCO FUGGLER COLLECT</t>
-  </si>
-  <si>
-    <t>20096148</t>
-  </si>
-  <si>
-    <t>WIKI ALPHABET ROBOT</t>
-  </si>
-  <si>
-    <t>20126490</t>
-  </si>
-  <si>
-    <t>PRLY/PD BLND PCK AST</t>
-  </si>
-  <si>
-    <t>20132254</t>
-  </si>
-  <si>
-    <t>WIKI IDM UNFRM SRIES</t>
-  </si>
-  <si>
-    <t>20135143</t>
-  </si>
-  <si>
-    <t>VR TOYS ALIEN SLIME</t>
-  </si>
-  <si>
-    <t>20137817</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RHINO NAIL UNICORN  </t>
-  </si>
-  <si>
-    <t>20106824</t>
-  </si>
-  <si>
-    <t>MNSTER JAM VL.TRUCK</t>
-  </si>
-  <si>
-    <t>20133723</t>
-  </si>
-  <si>
-    <t>RHINO SWEET LICIOUS</t>
-  </si>
-  <si>
-    <t>20124309</t>
-  </si>
-  <si>
-    <t>SM TECH DECK BASIC</t>
-  </si>
-  <si>
-    <t>20134161</t>
-  </si>
-  <si>
-    <t>EMCO BLING BANDZ</t>
-  </si>
-  <si>
-    <t>20134458</t>
-  </si>
-  <si>
-    <t>T&amp;F PLSTC ENGINE ASS</t>
-  </si>
-  <si>
-    <t>20138254</t>
-  </si>
-  <si>
-    <t>JURASIC WORLD FIDGET</t>
-  </si>
-  <si>
-    <t>20138689</t>
-  </si>
-  <si>
-    <t>EMCO INFINI-TWIST PY</t>
-  </si>
-  <si>
-    <t>20113536</t>
-  </si>
-  <si>
-    <t>H/W FLYING CSTM 2021</t>
-  </si>
-  <si>
-    <t>20130066</t>
-  </si>
-  <si>
-    <t>HW ULTRA HOTS ASS</t>
-  </si>
-  <si>
-    <t>20136215</t>
-  </si>
-  <si>
-    <t>HW FAST&amp;FR2025 HNR88</t>
-  </si>
-  <si>
-    <t>20137628</t>
-  </si>
-  <si>
-    <t>HW PEARL&amp;CHROME 2025</t>
-  </si>
-  <si>
-    <t>20109719</t>
-  </si>
-  <si>
-    <t>HW SHORT BLSTER 2021</t>
-  </si>
-  <si>
-    <t>20124057</t>
-  </si>
-  <si>
-    <t>HW PEARL&amp;CHROME ASS</t>
-  </si>
-  <si>
-    <t>20140691</t>
-  </si>
-  <si>
-    <t>HW 58TH ANNIV HDH54</t>
-  </si>
-  <si>
-    <t>20140692</t>
-  </si>
-  <si>
-    <t>HW LNR NEW YEAR 26</t>
-  </si>
-  <si>
-    <t>20007744</t>
-  </si>
-  <si>
-    <t>MOBIL HOT/WL ACL2025</t>
-  </si>
-  <si>
-    <t>20133725</t>
-  </si>
-  <si>
-    <t>HW J-IMPORT 2024</t>
-  </si>
-  <si>
-    <t>20133726</t>
-  </si>
-  <si>
-    <t>HW ULTRA HOTS HDG52</t>
-  </si>
-  <si>
-    <t>20137631</t>
-  </si>
-  <si>
-    <t>HW HYBRID SPEED 2025</t>
-  </si>
-  <si>
-    <t>20140693</t>
-  </si>
-  <si>
-    <t>HW FAST&amp;F 25TH ANNIV</t>
-  </si>
-  <si>
-    <t>20133548</t>
-  </si>
-  <si>
-    <t>HW VINTAGE RC HRT81</t>
-  </si>
-  <si>
-    <t>20133728</t>
-  </si>
-  <si>
-    <t>HW PEARL&amp;CHRME HDH54</t>
-  </si>
-  <si>
-    <t>20137358</t>
-  </si>
-  <si>
-    <t>HW VINTAGE RCG HRT81</t>
-  </si>
-  <si>
-    <t>20137359</t>
-  </si>
-  <si>
-    <t>HW NEON SPEED HLH72</t>
-  </si>
-  <si>
-    <t>20140694</t>
-  </si>
-  <si>
-    <t>HW THE HOT ONES</t>
-  </si>
-  <si>
-    <t>20140695</t>
-  </si>
-  <si>
-    <t>HW PANTONE JKY47</t>
-  </si>
-  <si>
-    <t>20129243</t>
-  </si>
-  <si>
-    <t>HW FAST&amp;FURS.HNR88</t>
-  </si>
-  <si>
-    <t>20132056</t>
-  </si>
-  <si>
-    <t>TROLLS BAND TGTHR FG</t>
-  </si>
-  <si>
-    <t>20134460</t>
-  </si>
-  <si>
-    <t>MEGA PKEMON POKEBALL</t>
-  </si>
-  <si>
-    <t>20139049</t>
-  </si>
-  <si>
-    <t>BARBIE CHRM&amp;BRC JML5</t>
-  </si>
-  <si>
-    <t>10011593</t>
-  </si>
-  <si>
-    <t>HOT WHEELS MBL BASIC</t>
-  </si>
-  <si>
-    <t>20137629</t>
-  </si>
-  <si>
-    <t>HW SURF UP 2025</t>
-  </si>
-  <si>
-    <t>20137630</t>
-  </si>
-  <si>
-    <t>HW VINTAGE ICON 2025</t>
-  </si>
-  <si>
-    <t>20028329</t>
-  </si>
-  <si>
-    <t>H.WHL COLOUR SHIFTER</t>
-  </si>
-  <si>
-    <t>20007929</t>
-  </si>
-  <si>
-    <t>MATCHBOX MOBIL 30782</t>
-  </si>
-  <si>
-    <t>20111564</t>
-  </si>
-  <si>
-    <t>MTCHBOX MV.PRT FWD28</t>
-  </si>
-  <si>
-    <t>20132776</t>
-  </si>
-  <si>
-    <t>HW CMPACT CASE HYJ70</t>
-  </si>
-  <si>
-    <t>20113009</t>
-  </si>
-  <si>
-    <t>SM DC SPR.HR FGR ASS</t>
-  </si>
-  <si>
-    <t>20116752</t>
-  </si>
-  <si>
-    <t>BIMA S FGRN 17CM MDR</t>
-  </si>
-  <si>
-    <t>20136547</t>
-  </si>
-  <si>
-    <t>MNCRAFT MN EGG HXT64</t>
-  </si>
-  <si>
-    <t>20092220</t>
-  </si>
-  <si>
-    <t>PLAY DOH VALUE SET</t>
-  </si>
-  <si>
-    <t>20134674</t>
-  </si>
-  <si>
-    <t>PLYDH ESSNTL CLR 10S</t>
-  </si>
-  <si>
-    <t>20135015</t>
-  </si>
-  <si>
-    <t>AMARA STRL MK UP KIT</t>
-  </si>
-  <si>
-    <t>20074122</t>
-  </si>
-  <si>
-    <t>EMCO HOT SHOTS BOLT</t>
-  </si>
-  <si>
-    <t>20053378</t>
-  </si>
-  <si>
-    <t>HELLO KITTY EGG 3345</t>
-  </si>
-  <si>
-    <t>20105569</t>
-  </si>
-  <si>
-    <t>EMCO DORAEMON MN FGR</t>
-  </si>
-  <si>
-    <t>20131699</t>
-  </si>
-  <si>
-    <t>EMCO PKEMON FACE OFF</t>
-  </si>
-  <si>
-    <t>20080091</t>
-  </si>
-  <si>
-    <t>APOLO MSZ PULLBACK</t>
-  </si>
-  <si>
-    <t>20117276</t>
-  </si>
-  <si>
-    <t>HOT WHLS PULL BACK</t>
-  </si>
-  <si>
-    <t>20129931</t>
-  </si>
-  <si>
-    <t>APOLO WOBBLE ASST</t>
-  </si>
-  <si>
-    <t>20134962</t>
-  </si>
-  <si>
-    <t>RHINO MI GEMESH ASST</t>
-  </si>
-  <si>
-    <t>20133041</t>
-  </si>
-  <si>
-    <t>RHINO CTCH THE MNSTR</t>
-  </si>
-  <si>
-    <t>20102648</t>
-  </si>
-  <si>
-    <t>EMCO SLIME TIME</t>
-  </si>
-  <si>
-    <t>20052530</t>
-  </si>
-  <si>
-    <t>PLAY DOH MINI 4 PACK</t>
-  </si>
-  <si>
-    <t>20098313</t>
-  </si>
-  <si>
-    <t>WIKI IDM STORE BRICK</t>
   </si>
 </sst>
 </file>
@@ -1348,7 +1291,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F125"/>
+  <dimension ref="A1:F126"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
@@ -1433,7 +1376,7 @@
         <v>4</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>5</v>
@@ -1441,19 +1384,19 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>14</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>5</v>
@@ -1461,19 +1404,19 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="C6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>17</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>5</v>
@@ -1481,19 +1424,19 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="C7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>5</v>
@@ -1501,11 +1444,11 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -1513,7 +1456,7 @@
         <v>4</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>5</v>
@@ -1521,19 +1464,19 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>5</v>
@@ -1541,19 +1484,19 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>29</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>5</v>
@@ -1561,19 +1504,19 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>32</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>5</v>
@@ -1581,19 +1524,19 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>5</v>
@@ -1601,19 +1544,19 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>38</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>5</v>
@@ -1621,19 +1564,19 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>41</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>5</v>
@@ -1641,19 +1584,19 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>44</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>5</v>
@@ -1661,19 +1604,19 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E16" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>47</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>5</v>
@@ -1681,19 +1624,19 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E17" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>50</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>5</v>
@@ -1701,19 +1644,19 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E18" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>53</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>5</v>
@@ -1721,19 +1664,19 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E19" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>56</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>5</v>
@@ -1741,39 +1684,39 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E20" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="F20" s="1" t="s">
         <v>58</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="C21" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E21" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>62</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>5</v>
@@ -1781,19 +1724,19 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="C22" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E22" s="1" t="s">
         <v>64</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>65</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>5</v>
@@ -1801,19 +1744,19 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="C23" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E23" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>68</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>5</v>
@@ -1821,19 +1764,19 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="C24" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E24" s="1" t="s">
         <v>70</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>71</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>5</v>
@@ -1841,39 +1784,39 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="C25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E25" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C25" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E25" s="1" t="s">
+      <c r="F25" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="C26" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E26" s="1" t="s">
         <v>77</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>78</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>5</v>
@@ -1881,19 +1824,19 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="C27" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E27" s="1" t="s">
         <v>80</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>81</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>5</v>
@@ -1901,19 +1844,19 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="C28" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E28" s="1" t="s">
         <v>83</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>84</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>5</v>
@@ -1921,19 +1864,19 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="C29" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E29" s="1" t="s">
         <v>86</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>87</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>5</v>
@@ -1941,19 +1884,19 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="C30" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E30" s="1" t="s">
         <v>89</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>90</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>5</v>
@@ -1961,19 +1904,19 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="C31" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E31" s="1" t="s">
         <v>92</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>93</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>5</v>
@@ -1981,19 +1924,19 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="C32" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E32" s="1" t="s">
         <v>95</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>96</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>5</v>
@@ -2001,19 +1944,19 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="C33" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E33" s="1" t="s">
         <v>98</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>99</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>5</v>
@@ -2021,39 +1964,39 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="C34" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E34" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="C34" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>102</v>
-      </c>
       <c r="F34" s="1" t="s">
-        <v>5</v>
+        <v>74</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="C35" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E35" s="1" t="s">
         <v>104</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>105</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>5</v>
@@ -2061,19 +2004,19 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="C36" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E36" s="1" t="s">
         <v>107</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>108</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>5</v>
@@ -2081,19 +2024,19 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B37" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="C37" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E37" s="1" t="s">
         <v>110</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>111</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>5</v>
@@ -2101,19 +2044,19 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B38" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="C38" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E38" s="1" t="s">
         <v>113</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>114</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>5</v>
@@ -2121,79 +2064,79 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B39" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="C39" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E39" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="C39" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>117</v>
-      </c>
       <c r="F39" s="1" t="s">
-        <v>118</v>
+        <v>74</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E40" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="F40" s="1" t="s">
         <v>120</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B41" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="C41" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E41" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="C41" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>124</v>
-      </c>
       <c r="F41" s="1" t="s">
-        <v>118</v>
+        <v>74</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B42" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="C42" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E42" s="1" t="s">
         <v>126</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>127</v>
       </c>
       <c r="F42" s="1" t="s">
         <v>5</v>
@@ -2201,39 +2144,39 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B43" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="B43" s="1" t="s">
-        <v>129</v>
-      </c>
       <c r="C43" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>130</v>
+        <v>4</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>75</v>
+        <v>5</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>133</v>
+        <v>8</v>
       </c>
       <c r="F44" s="1" t="s">
         <v>5</v>
@@ -2241,19 +2184,19 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>136</v>
+        <v>13</v>
       </c>
       <c r="F45" s="1" t="s">
         <v>5</v>
@@ -2261,19 +2204,19 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>139</v>
+        <v>16</v>
       </c>
       <c r="F46" s="1" t="s">
         <v>5</v>
@@ -2281,19 +2224,19 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>142</v>
+        <v>19</v>
       </c>
       <c r="F47" s="1" t="s">
         <v>5</v>
@@ -2301,19 +2244,19 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>145</v>
+        <v>24</v>
       </c>
       <c r="F48" s="1" t="s">
         <v>5</v>
@@ -2321,59 +2264,59 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>148</v>
+        <v>27</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>5</v>
+        <v>120</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>151</v>
+        <v>30</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>5</v>
+        <v>74</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>154</v>
+        <v>4</v>
       </c>
       <c r="F51" s="1" t="s">
         <v>5</v>
@@ -2381,19 +2324,19 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>157</v>
+        <v>8</v>
       </c>
       <c r="F52" s="1" t="s">
         <v>5</v>
@@ -2401,19 +2344,19 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>160</v>
+        <v>13</v>
       </c>
       <c r="F53" s="1" t="s">
         <v>5</v>
@@ -2421,19 +2364,19 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>163</v>
+        <v>16</v>
       </c>
       <c r="F54" s="1" t="s">
         <v>5</v>
@@ -2441,19 +2384,19 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>164</v>
+        <v>151</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>166</v>
+        <v>19</v>
       </c>
       <c r="F55" s="1" t="s">
         <v>5</v>
@@ -2461,19 +2404,19 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>167</v>
+        <v>153</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>168</v>
+        <v>154</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>169</v>
+        <v>24</v>
       </c>
       <c r="F56" s="1" t="s">
         <v>5</v>
@@ -2481,19 +2424,19 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>170</v>
+        <v>155</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>172</v>
+        <v>27</v>
       </c>
       <c r="F57" s="1" t="s">
         <v>5</v>
@@ -2501,19 +2444,19 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>173</v>
+        <v>157</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>174</v>
+        <v>158</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>175</v>
+        <v>4</v>
       </c>
       <c r="F58" s="1" t="s">
         <v>5</v>
@@ -2521,19 +2464,19 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>178</v>
+        <v>8</v>
       </c>
       <c r="F59" s="1" t="s">
         <v>5</v>
@@ -2541,79 +2484,79 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>179</v>
+        <v>161</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>180</v>
+        <v>162</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>181</v>
+        <v>13</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>182</v>
+        <v>5</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>183</v>
+        <v>163</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>184</v>
+        <v>164</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>185</v>
+        <v>16</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>75</v>
+        <v>5</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>186</v>
+        <v>165</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>187</v>
+        <v>166</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>188</v>
+        <v>19</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>118</v>
+        <v>5</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>189</v>
+        <v>167</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>190</v>
+        <v>168</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="F63" s="1" t="s">
         <v>5</v>
@@ -2621,19 +2564,19 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>191</v>
+        <v>169</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="F64" s="1" t="s">
         <v>5</v>
@@ -2641,39 +2584,39 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>193</v>
+        <v>171</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>194</v>
+        <v>172</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>182</v>
+        <v>5</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>195</v>
+        <v>173</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>196</v>
+        <v>174</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D66" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E66" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="E66" s="1" t="s">
-        <v>11</v>
       </c>
       <c r="F66" s="1" t="s">
         <v>5</v>
@@ -2681,19 +2624,19 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>197</v>
+        <v>175</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>198</v>
+        <v>176</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D67" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E67" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="E67" s="1" t="s">
-        <v>14</v>
       </c>
       <c r="F67" s="1" t="s">
         <v>5</v>
@@ -2701,19 +2644,19 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>199</v>
+        <v>177</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>200</v>
+        <v>178</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D68" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E68" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="E68" s="1" t="s">
-        <v>17</v>
       </c>
       <c r="F68" s="1" t="s">
         <v>5</v>
@@ -2721,19 +2664,19 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>201</v>
+        <v>179</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>202</v>
+        <v>180</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D69" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E69" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="E69" s="1" t="s">
-        <v>23</v>
       </c>
       <c r="F69" s="1" t="s">
         <v>5</v>
@@ -2741,19 +2684,19 @@
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>203</v>
+        <v>181</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>204</v>
+        <v>182</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D70" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E70" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="E70" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="F70" s="1" t="s">
         <v>5</v>
@@ -2761,19 +2704,19 @@
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>205</v>
+        <v>183</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>206</v>
+        <v>184</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="F71" s="1" t="s">
         <v>5</v>
@@ -2781,19 +2724,19 @@
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>207</v>
+        <v>185</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>208</v>
+        <v>186</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="F72" s="1" t="s">
         <v>5</v>
@@ -2801,19 +2744,19 @@
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>209</v>
+        <v>187</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>210</v>
+        <v>188</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F73" s="1" t="s">
         <v>5</v>
@@ -2821,19 +2764,19 @@
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>211</v>
+        <v>189</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>212</v>
+        <v>190</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F74" s="1" t="s">
         <v>5</v>
@@ -2841,19 +2784,19 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>213</v>
+        <v>191</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>214</v>
+        <v>192</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F75" s="1" t="s">
         <v>5</v>
@@ -2861,59 +2804,59 @@
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>215</v>
+        <v>193</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>216</v>
+        <v>194</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>5</v>
+        <v>74</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>217</v>
+        <v>195</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>218</v>
+        <v>196</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>118</v>
+        <v>5</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>219</v>
+        <v>197</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>220</v>
+        <v>198</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F78" s="1" t="s">
         <v>5</v>
@@ -2921,19 +2864,19 @@
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>221</v>
+        <v>199</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>222</v>
+        <v>200</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F79" s="1" t="s">
         <v>5</v>
@@ -2941,19 +2884,19 @@
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>224</v>
+        <v>202</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F80" s="1" t="s">
         <v>5</v>
@@ -2961,39 +2904,39 @@
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>225</v>
+        <v>203</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>226</v>
+        <v>204</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>5</v>
+        <v>74</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>227</v>
+        <v>205</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>228</v>
+        <v>206</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="F82" s="1" t="s">
         <v>5</v>
@@ -3001,19 +2944,19 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>229</v>
+        <v>207</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>230</v>
+        <v>208</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="F83" s="1" t="s">
         <v>5</v>
@@ -3021,39 +2964,39 @@
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>231</v>
+        <v>209</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>232</v>
+        <v>210</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>75</v>
+        <v>5</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>233</v>
+        <v>211</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>234</v>
+        <v>212</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="F85" s="1" t="s">
         <v>5</v>
@@ -3061,19 +3004,19 @@
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>235</v>
+        <v>213</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>236</v>
+        <v>214</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="F86" s="1" t="s">
         <v>5</v>
@@ -3081,19 +3024,19 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>237</v>
+        <v>215</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>238</v>
+        <v>216</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="F87" s="1" t="s">
         <v>5</v>
@@ -3101,59 +3044,59 @@
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>239</v>
+        <v>217</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>240</v>
+        <v>218</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>5</v>
+        <v>74</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>241</v>
+        <v>219</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>242</v>
+        <v>220</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>5</v>
+        <v>74</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>243</v>
+        <v>221</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>244</v>
+        <v>222</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="F90" s="1" t="s">
         <v>5</v>
@@ -3161,19 +3104,19 @@
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>245</v>
+        <v>223</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>246</v>
+        <v>224</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="F91" s="1" t="s">
         <v>5</v>
@@ -3181,39 +3124,39 @@
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>247</v>
+        <v>225</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>248</v>
+        <v>226</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>5</v>
+        <v>58</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>249</v>
+        <v>227</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>250</v>
+        <v>228</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F93" s="1" t="s">
         <v>5</v>
@@ -3221,19 +3164,19 @@
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>251</v>
+        <v>229</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>252</v>
+        <v>230</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F94" s="1" t="s">
         <v>5</v>
@@ -3241,59 +3184,59 @@
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>253</v>
+        <v>231</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>254</v>
+        <v>232</v>
       </c>
       <c r="C95" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>255</v>
+        <v>233</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>256</v>
+        <v>234</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>75</v>
+        <v>235</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>257</v>
+        <v>236</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>258</v>
+        <v>237</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="F97" s="1" t="s">
         <v>5</v>
@@ -3301,19 +3244,19 @@
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>259</v>
+        <v>238</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>260</v>
+        <v>239</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="F98" s="1" t="s">
         <v>5</v>
@@ -3321,19 +3264,19 @@
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
-        <v>261</v>
+        <v>240</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>262</v>
+        <v>241</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="F99" s="1" t="s">
         <v>5</v>
@@ -3341,19 +3284,19 @@
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>263</v>
+        <v>242</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>264</v>
+        <v>243</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="F100" s="1" t="s">
         <v>5</v>
@@ -3361,16 +3304,16 @@
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>265</v>
+        <v>244</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>266</v>
+        <v>245</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="E101" s="1" t="s">
         <v>4</v>
@@ -3381,16 +3324,16 @@
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>267</v>
+        <v>246</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>268</v>
+        <v>247</v>
       </c>
       <c r="C102" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="E102" s="1" t="s">
         <v>8</v>
@@ -3401,16 +3344,16 @@
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>269</v>
+        <v>248</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>270</v>
+        <v>249</v>
       </c>
       <c r="C103" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="E103" s="1" t="s">
         <v>8</v>
@@ -3421,19 +3364,19 @@
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>271</v>
+        <v>250</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>272</v>
+        <v>251</v>
       </c>
       <c r="C104" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F104" s="1" t="s">
         <v>5</v>
@@ -3441,19 +3384,19 @@
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
-        <v>273</v>
+        <v>252</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>274</v>
+        <v>253</v>
       </c>
       <c r="C105" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="F105" s="1" t="s">
         <v>5</v>
@@ -3461,19 +3404,19 @@
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
-        <v>275</v>
+        <v>254</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>276</v>
+        <v>255</v>
       </c>
       <c r="C106" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F106" s="1" t="s">
         <v>5</v>
@@ -3481,19 +3424,19 @@
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
-        <v>277</v>
+        <v>256</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>278</v>
+        <v>257</v>
       </c>
       <c r="C107" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="F107" s="1" t="s">
         <v>5</v>
@@ -3501,19 +3444,19 @@
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
-        <v>279</v>
+        <v>258</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>280</v>
+        <v>259</v>
       </c>
       <c r="C108" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="F108" s="1" t="s">
         <v>5</v>
@@ -3521,19 +3464,19 @@
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
-        <v>281</v>
+        <v>260</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>282</v>
+        <v>261</v>
       </c>
       <c r="C109" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="F109" s="1" t="s">
         <v>5</v>
@@ -3541,19 +3484,19 @@
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
-        <v>283</v>
+        <v>262</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>284</v>
+        <v>263</v>
       </c>
       <c r="C110" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F110" s="1" t="s">
         <v>5</v>
@@ -3561,39 +3504,39 @@
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
-        <v>285</v>
+        <v>264</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>286</v>
+        <v>265</v>
       </c>
       <c r="C111" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>5</v>
+        <v>74</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
-        <v>287</v>
+        <v>266</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>288</v>
+        <v>267</v>
       </c>
       <c r="C112" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F112" s="1" t="s">
         <v>5</v>
@@ -3601,39 +3544,39 @@
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
-        <v>289</v>
+        <v>268</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>290</v>
+        <v>269</v>
       </c>
       <c r="C113" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>118</v>
+        <v>5</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
-        <v>291</v>
+        <v>270</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>292</v>
+        <v>271</v>
       </c>
       <c r="C114" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F114" s="1" t="s">
         <v>5</v>
@@ -3641,39 +3584,39 @@
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
-        <v>293</v>
+        <v>272</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>294</v>
+        <v>273</v>
       </c>
       <c r="C115" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>5</v>
+        <v>58</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
-        <v>295</v>
+        <v>274</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>296</v>
+        <v>275</v>
       </c>
       <c r="C116" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="F116" s="1" t="s">
         <v>5</v>
@@ -3681,19 +3624,19 @@
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
-        <v>297</v>
+        <v>276</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>298</v>
+        <v>277</v>
       </c>
       <c r="C117" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="F117" s="1" t="s">
         <v>5</v>
@@ -3701,19 +3644,19 @@
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
-        <v>299</v>
+        <v>278</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>300</v>
+        <v>279</v>
       </c>
       <c r="C118" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="F118" s="1" t="s">
         <v>5</v>
@@ -3721,19 +3664,19 @@
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
-        <v>301</v>
+        <v>280</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>302</v>
+        <v>281</v>
       </c>
       <c r="C119" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="F119" s="1" t="s">
         <v>5</v>
@@ -3741,19 +3684,19 @@
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
-        <v>303</v>
+        <v>282</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>304</v>
+        <v>283</v>
       </c>
       <c r="C120" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F120" s="1" t="s">
         <v>5</v>
@@ -3761,19 +3704,19 @@
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
-        <v>305</v>
+        <v>284</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>306</v>
+        <v>285</v>
       </c>
       <c r="C121" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F121" s="1" t="s">
         <v>5</v>
@@ -3781,19 +3724,19 @@
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
-        <v>307</v>
+        <v>286</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>308</v>
+        <v>287</v>
       </c>
       <c r="C122" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="F122" s="1" t="s">
         <v>5</v>
@@ -3801,19 +3744,19 @@
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
-        <v>309</v>
+        <v>288</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>310</v>
+        <v>289</v>
       </c>
       <c r="C123" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F123" s="1" t="s">
         <v>5</v>
@@ -3821,19 +3764,19 @@
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
-        <v>311</v>
+        <v>290</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>312</v>
+        <v>291</v>
       </c>
       <c r="C124" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F124" s="1" t="s">
         <v>5</v>
@@ -3841,21 +3784,41 @@
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
-        <v>313</v>
+        <v>292</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>314</v>
+        <v>293</v>
       </c>
       <c r="C125" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F125" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A126" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D126" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E126" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F126" s="1" t="s">
         <v>5</v>
       </c>
     </row>

--- a/TOY01D.xlsx
+++ b/TOY01D.xlsx
@@ -1,17 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28129"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1000001_{F5557DAA-1151-9D48-9C04-60EC7AAFC6F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet sheetId="1" name="Sheet1" state="visible" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="191028"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="756" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="777" uniqueCount="305">
   <si>
     <t/>
   </si>
@@ -394,6 +411,33 @@
     <t>42</t>
   </si>
   <si>
+    <t>20140689</t>
+  </si>
+  <si>
+    <t>EMCO SD FLOWER MKR</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>20141254</t>
+  </si>
+  <si>
+    <t>SPNM  GABBYS DLHOUSE</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>20141255</t>
+  </si>
+  <si>
+    <t>BLOKEES TRANSFORMERS</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
     <t>20134460</t>
   </si>
   <si>
@@ -718,9 +762,6 @@
     <t>EMCO FUGGLER COLLECT</t>
   </si>
   <si>
-    <t>TG</t>
-  </si>
-  <si>
     <t>20128424</t>
   </si>
   <si>
@@ -899,19 +940,22 @@
   </si>
   <si>
     <t>NRTHLND TOOL HELPER</t>
+  </si>
+  <si>
+    <t>TOY01D_2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-      <sz val="11"/>
-      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -932,16 +976,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="000000"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color rgb="000000"/>
+        <color rgb="FF000000"/>
       </right>
       <top style="thin">
-        <color rgb="000000"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color rgb="000000"/>
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1290,19 +1334,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F126"/>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F131"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A90" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C143" sqref="C143"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10" customWidth="1"/>
-    <col min="2" max="2" width="22" customWidth="1"/>
-    <col min="3" max="3" width="8" customWidth="1"/>
-    <col min="4" max="4" width="3" customWidth="1"/>
-    <col min="5" max="5" width="4" customWidth="1"/>
-    <col min="6" max="6" width="11" customWidth="1"/>
+    <col min="1" max="1" width="9.953125" customWidth="1"/>
+    <col min="2" max="2" width="22.05859375" customWidth="1"/>
+    <col min="3" max="3" width="7.93359375" customWidth="1"/>
+    <col min="4" max="4" width="2.95703125" customWidth="1"/>
+    <col min="5" max="5" width="4.03515625" customWidth="1"/>
+    <col min="6" max="6" width="11.02734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1322,7 +1371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1342,7 +1391,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -1362,7 +1411,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -1382,7 +1431,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
@@ -1402,7 +1451,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>14</v>
       </c>
@@ -1422,7 +1471,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>17</v>
       </c>
@@ -1442,7 +1491,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>20</v>
       </c>
@@ -1462,7 +1511,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>22</v>
       </c>
@@ -1482,7 +1531,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>25</v>
       </c>
@@ -1502,7 +1551,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>28</v>
       </c>
@@ -1522,7 +1571,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>31</v>
       </c>
@@ -1542,7 +1591,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>34</v>
       </c>
@@ -1562,7 +1611,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>37</v>
       </c>
@@ -1582,7 +1631,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>40</v>
       </c>
@@ -1602,7 +1651,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>43</v>
       </c>
@@ -1622,7 +1671,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>46</v>
       </c>
@@ -1642,7 +1691,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>49</v>
       </c>
@@ -1662,7 +1711,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>52</v>
       </c>
@@ -1682,7 +1731,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>55</v>
       </c>
@@ -1702,7 +1751,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>59</v>
       </c>
@@ -1722,7 +1771,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>62</v>
       </c>
@@ -1742,7 +1791,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>65</v>
       </c>
@@ -1762,7 +1811,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>68</v>
       </c>
@@ -1782,7 +1831,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>71</v>
       </c>
@@ -1802,7 +1851,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>75</v>
       </c>
@@ -1822,7 +1871,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>78</v>
       </c>
@@ -1842,7 +1891,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>81</v>
       </c>
@@ -1862,7 +1911,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>84</v>
       </c>
@@ -1882,7 +1931,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>87</v>
       </c>
@@ -1902,7 +1951,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>90</v>
       </c>
@@ -1922,7 +1971,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>93</v>
       </c>
@@ -1942,7 +1991,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>96</v>
       </c>
@@ -1962,7 +2011,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>99</v>
       </c>
@@ -1982,7 +2031,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>102</v>
       </c>
@@ -2002,7 +2051,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>105</v>
       </c>
@@ -2022,7 +2071,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>108</v>
       </c>
@@ -2042,7 +2091,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>111</v>
       </c>
@@ -2062,7 +2111,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>114</v>
       </c>
@@ -2082,7 +2131,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>117</v>
       </c>
@@ -2102,7 +2151,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>121</v>
       </c>
@@ -2122,7 +2171,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>124</v>
       </c>
@@ -2142,7 +2191,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>127</v>
       </c>
@@ -2153,61 +2202,61 @@
         <v>3</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>4</v>
+        <v>129</v>
       </c>
       <c r="F43" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>8</v>
+        <v>132</v>
       </c>
       <c r="F44" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>13</v>
+        <v>135</v>
       </c>
       <c r="F45" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>3</v>
@@ -2216,18 +2265,18 @@
         <v>8</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="F46" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>3</v>
@@ -2236,18 +2285,18 @@
         <v>8</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="F47" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>3</v>
@@ -2256,18 +2305,18 @@
         <v>8</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="F48" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>3</v>
@@ -2276,18 +2325,18 @@
         <v>8</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>3</v>
@@ -2296,78 +2345,78 @@
         <v>8</v>
       </c>
       <c r="E50" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A51" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A52" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A53" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E53" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F50" s="1" t="s">
+      <c r="F53" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F51" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F52" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F53" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>3</v>
@@ -2376,18 +2425,18 @@
         <v>13</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="F54" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>3</v>
@@ -2396,18 +2445,18 @@
         <v>13</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="F55" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>3</v>
@@ -2416,18 +2465,18 @@
         <v>13</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="F56" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>3</v>
@@ -2436,78 +2485,78 @@
         <v>13</v>
       </c>
       <c r="E57" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A58" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A59" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A60" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E60" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F57" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F58" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E59" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F59" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E60" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="F60" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>3</v>
@@ -2516,18 +2565,18 @@
         <v>16</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="F61" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>3</v>
@@ -2536,18 +2585,18 @@
         <v>16</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="F62" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>3</v>
@@ -2556,18 +2605,18 @@
         <v>16</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="F63" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>3</v>
@@ -2576,78 +2625,78 @@
         <v>16</v>
       </c>
       <c r="E64" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A65" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A66" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A67" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E67" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F64" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E65" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F65" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E66" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F66" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D67" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E67" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="F67" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>3</v>
@@ -2656,18 +2705,18 @@
         <v>19</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F68" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>3</v>
@@ -2682,12 +2731,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>3</v>
@@ -2702,12 +2751,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>3</v>
@@ -2716,18 +2765,18 @@
         <v>19</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="F71" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>3</v>
@@ -2736,18 +2785,18 @@
         <v>19</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="F72" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>3</v>
@@ -2756,18 +2805,18 @@
         <v>19</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="F73" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>3</v>
@@ -2782,12 +2831,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>3</v>
@@ -2802,12 +2851,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>3</v>
@@ -2819,15 +2868,15 @@
         <v>13</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>3</v>
@@ -2836,18 +2885,18 @@
         <v>19</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F77" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>3</v>
@@ -2856,18 +2905,18 @@
         <v>19</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F78" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>3</v>
@@ -2876,18 +2925,18 @@
         <v>19</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>3</v>
@@ -2902,12 +2951,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>3</v>
@@ -2919,15 +2968,15 @@
         <v>16</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>3</v>
@@ -2936,18 +2985,18 @@
         <v>19</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F82" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>3</v>
@@ -2956,18 +3005,18 @@
         <v>19</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F83" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>3</v>
@@ -2976,18 +3025,18 @@
         <v>19</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>3</v>
@@ -2996,18 +3045,18 @@
         <v>19</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="F85" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>3</v>
@@ -3016,18 +3065,18 @@
         <v>19</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="F86" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>3</v>
@@ -3036,18 +3085,18 @@
         <v>19</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="F87" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>3</v>
@@ -3059,15 +3108,15 @@
         <v>24</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>3</v>
@@ -3079,15 +3128,15 @@
         <v>24</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>3</v>
@@ -3096,78 +3145,78 @@
         <v>19</v>
       </c>
       <c r="E90" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A91" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F91" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A92" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F92" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A93" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E93" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F90" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A91" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="B91" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="C91" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D91" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E91" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F91" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A92" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="B92" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="C92" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D92" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E92" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F92" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A93" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="B93" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="C93" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D93" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E93" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="F93" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>3</v>
@@ -3176,18 +3225,18 @@
         <v>24</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="F94" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="C95" s="1" t="s">
         <v>3</v>
@@ -3196,18 +3245,18 @@
         <v>24</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="F95" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>3</v>
@@ -3216,18 +3265,18 @@
         <v>24</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>3</v>
@@ -3236,78 +3285,78 @@
         <v>24</v>
       </c>
       <c r="E97" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F97" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A98" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F98" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A99" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F99" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A100" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E100" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F97" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A98" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="B98" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="C98" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D98" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E98" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F98" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A99" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="B99" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="C99" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D99" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E99" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F99" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A100" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="B100" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="C100" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D100" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E100" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="F100" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>3</v>
@@ -3322,12 +3371,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="C102" s="1" t="s">
         <v>3</v>
@@ -3336,18 +3385,18 @@
         <v>27</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F102" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="C103" s="1" t="s">
         <v>3</v>
@@ -3356,18 +3405,18 @@
         <v>27</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F103" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="C104" s="1" t="s">
         <v>3</v>
@@ -3376,18 +3425,18 @@
         <v>27</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F104" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="C105" s="1" t="s">
         <v>3</v>
@@ -3402,12 +3451,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="C106" s="1" t="s">
         <v>3</v>
@@ -3416,18 +3465,18 @@
         <v>27</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="F106" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="C107" s="1" t="s">
         <v>3</v>
@@ -3436,18 +3485,18 @@
         <v>27</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="F107" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="C108" s="1" t="s">
         <v>3</v>
@@ -3456,18 +3505,18 @@
         <v>27</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="F108" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="C109" s="1" t="s">
         <v>3</v>
@@ -3482,12 +3531,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C110" s="1" t="s">
         <v>3</v>
@@ -3496,18 +3545,18 @@
         <v>27</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F110" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="C111" s="1" t="s">
         <v>3</v>
@@ -3516,18 +3565,18 @@
         <v>27</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="C112" s="1" t="s">
         <v>3</v>
@@ -3536,18 +3585,18 @@
         <v>27</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F112" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="C113" s="1" t="s">
         <v>3</v>
@@ -3562,12 +3611,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="C114" s="1" t="s">
         <v>3</v>
@@ -3576,18 +3625,18 @@
         <v>27</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="C115" s="1" t="s">
         <v>3</v>
@@ -3596,18 +3645,18 @@
         <v>27</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="C116" s="1" t="s">
         <v>3</v>
@@ -3616,18 +3665,18 @@
         <v>27</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F116" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="C117" s="1" t="s">
         <v>3</v>
@@ -3642,12 +3691,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="C118" s="1" t="s">
         <v>3</v>
@@ -3656,18 +3705,18 @@
         <v>27</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="C119" s="1" t="s">
         <v>3</v>
@@ -3676,18 +3725,18 @@
         <v>27</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="F119" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="C120" s="1" t="s">
         <v>3</v>
@@ -3696,18 +3745,18 @@
         <v>27</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="F120" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="C121" s="1" t="s">
         <v>3</v>
@@ -3722,12 +3771,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="C122" s="1" t="s">
         <v>3</v>
@@ -3736,18 +3785,18 @@
         <v>27</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F122" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="C123" s="1" t="s">
         <v>3</v>
@@ -3756,18 +3805,18 @@
         <v>27</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F123" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="C124" s="1" t="s">
         <v>3</v>
@@ -3776,18 +3825,18 @@
         <v>27</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="F124" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="C125" s="1" t="s">
         <v>3</v>
@@ -3796,18 +3845,18 @@
         <v>27</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="F125" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="C126" s="1" t="s">
         <v>3</v>
@@ -3816,14 +3865,94 @@
         <v>27</v>
       </c>
       <c r="E126" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F126" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A127" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D127" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E127" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F127" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A128" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D128" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E128" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F128" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A129" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D129" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E129" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F126" s="1" t="s">
+      <c r="F129" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A131">
+        <v>20126490</v>
+      </c>
+      <c r="B131" t="s">
+        <v>2</v>
+      </c>
+      <c r="C131" t="s">
+        <v>304</v>
+      </c>
+      <c r="D131">
+        <v>6</v>
+      </c>
+      <c r="E131">
+        <v>2</v>
+      </c>
+      <c r="F131" t="s">
         <v>5</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295"/>
 </worksheet>
 </file>
--- a/TOY01D.xlsx
+++ b/TOY01D.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28129"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1000001_{F5557DAA-1151-9D48-9C04-60EC7AAFC6F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1000001_{73A01497-A6F5-C64F-8216-5A633A398B47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="777" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="723" uniqueCount="284">
   <si>
     <t/>
   </si>
@@ -243,144 +243,117 @@
     <t>22</t>
   </si>
   <si>
-    <t>20119105</t>
-  </si>
-  <si>
-    <t>BIMA S HERO MASK MDR</t>
-  </si>
-  <si>
-    <t>23</t>
+    <t>20102474</t>
+  </si>
+  <si>
+    <t>JRSC WORLD SNAP SQAD</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>20132056</t>
+  </si>
+  <si>
+    <t>TROLLS BAND TGTHR FG</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>20122578</t>
+  </si>
+  <si>
+    <t>CAT LITTLE MACHINES</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>20135143</t>
+  </si>
+  <si>
+    <t>VR TOYS ALIEN SLIME</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>20127235</t>
+  </si>
+  <si>
+    <t>QMAN PKMON BRICK ASS</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>20122574</t>
+  </si>
+  <si>
+    <t>H/W MONSTER TRUCK</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>20138002</t>
+  </si>
+  <si>
+    <t>PIXAR IMPULSE  MINIS</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>20140329</t>
+  </si>
+  <si>
+    <t>BLOKEES HERO INFINTY</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>20134674</t>
+  </si>
+  <si>
+    <t>PLYDH ESSNTL CLR 10S</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>20132321</t>
+  </si>
+  <si>
+    <t>VR TOY BLN AIR JMB2S</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>20124280</t>
+  </si>
+  <si>
+    <t>WIKI DC IDM  DLVR TR</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>20135483</t>
+  </si>
+  <si>
+    <t>EMCO VRTX ROPE LOOPR</t>
+  </si>
+  <si>
+    <t>39</t>
   </si>
   <si>
     <t>RT</t>
   </si>
   <si>
-    <t>20102474</t>
-  </si>
-  <si>
-    <t>JRSC WORLD SNAP SQAD</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>20132056</t>
-  </si>
-  <si>
-    <t>TROLLS BAND TGTHR FG</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>20126000</t>
-  </si>
-  <si>
-    <t>MTCHBX MBL JPN ASS</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>20122578</t>
-  </si>
-  <si>
-    <t>CAT LITTLE MACHINES</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>20135143</t>
-  </si>
-  <si>
-    <t>VR TOYS ALIEN SLIME</t>
-  </si>
-  <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t>20127235</t>
-  </si>
-  <si>
-    <t>QMAN PKMON BRICK ASS</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>20122574</t>
-  </si>
-  <si>
-    <t>H/W MONSTER TRUCK</t>
-  </si>
-  <si>
-    <t>31</t>
-  </si>
-  <si>
-    <t>20138002</t>
-  </si>
-  <si>
-    <t>PIXAR IMPULSE  MINIS</t>
-  </si>
-  <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>20077551</t>
-  </si>
-  <si>
-    <t>EMCO POCKET MORPHERS</t>
-  </si>
-  <si>
-    <t>34</t>
-  </si>
-  <si>
-    <t>20140329</t>
-  </si>
-  <si>
-    <t>BLOKEES HERO INFINTY</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>20134674</t>
-  </si>
-  <si>
-    <t>PLYDH ESSNTL CLR 10S</t>
-  </si>
-  <si>
-    <t>36</t>
-  </si>
-  <si>
-    <t>20132321</t>
-  </si>
-  <si>
-    <t>VR TOY BLN AIR JMB2S</t>
-  </si>
-  <si>
-    <t>37</t>
-  </si>
-  <si>
-    <t>20124280</t>
-  </si>
-  <si>
-    <t>WIKI DC IDM  DLVR TR</t>
-  </si>
-  <si>
-    <t>38</t>
-  </si>
-  <si>
-    <t>20135483</t>
-  </si>
-  <si>
-    <t>EMCO VRTX ROPE LOOPR</t>
-  </si>
-  <si>
-    <t>39</t>
-  </si>
-  <si>
     <t>20138689</t>
   </si>
   <si>
@@ -582,18 +555,6 @@
     <t>MOBIL HOT/WL ACL2025</t>
   </si>
   <si>
-    <t>20113536</t>
-  </si>
-  <si>
-    <t>H/W FLYING CSTM 2021</t>
-  </si>
-  <si>
-    <t>20124057</t>
-  </si>
-  <si>
-    <t>HW PEARL&amp;CHROME ASS</t>
-  </si>
-  <si>
     <t>20137630</t>
   </si>
   <si>
@@ -618,12 +579,6 @@
     <t>HW SHORT BLSTER 2021</t>
   </si>
   <si>
-    <t>20129243</t>
-  </si>
-  <si>
-    <t>HW FAST&amp;FURS.HNR88</t>
-  </si>
-  <si>
     <t>20137629</t>
   </si>
   <si>
@@ -648,18 +603,6 @@
     <t>HW ULTRA HOTS ASS</t>
   </si>
   <si>
-    <t>20133548</t>
-  </si>
-  <si>
-    <t>HW VINTAGE RC HRT81</t>
-  </si>
-  <si>
-    <t>20133725</t>
-  </si>
-  <si>
-    <t>HW J-IMPORT 2024</t>
-  </si>
-  <si>
     <t>20133726</t>
   </si>
   <si>
@@ -670,12 +613,6 @@
   </si>
   <si>
     <t>HW COMPACT KINGS</t>
-  </si>
-  <si>
-    <t>20133728</t>
-  </si>
-  <si>
-    <t>HW PEARL&amp;CHRME HDH54</t>
   </si>
   <si>
     <t>20136215</t>
@@ -1335,10 +1272,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F131"/>
+  <dimension ref="A1:F121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A90" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C143" sqref="C143"/>
+    <sheetView tabSelected="1" topLeftCell="B46" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C86" sqref="A86:F86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1848,24 +1785,24 @@
         <v>73</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>74</v>
+        <v>5</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="C26" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E26" s="1" t="s">
         <v>76</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>77</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>5</v>
@@ -1873,19 +1810,19 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="C27" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E27" s="1" t="s">
         <v>79</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>80</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>5</v>
@@ -1893,19 +1830,19 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="C28" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E28" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>83</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>5</v>
@@ -1913,19 +1850,19 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="C29" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E29" s="1" t="s">
         <v>85</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>86</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>5</v>
@@ -1933,19 +1870,19 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="C30" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E30" s="1" t="s">
         <v>88</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>89</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>5</v>
@@ -1953,19 +1890,19 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="C31" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E31" s="1" t="s">
         <v>91</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>92</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>5</v>
@@ -1973,19 +1910,19 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="C32" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E32" s="1" t="s">
         <v>94</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>95</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>5</v>
@@ -1993,19 +1930,19 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="C33" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E33" s="1" t="s">
         <v>97</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>98</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>5</v>
@@ -2013,39 +1950,39 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="C34" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E34" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C34" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>101</v>
-      </c>
       <c r="F34" s="1" t="s">
-        <v>74</v>
+        <v>5</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="C35" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E35" s="1" t="s">
         <v>103</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>104</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>5</v>
@@ -2053,22 +1990,22 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="C36" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E36" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="C36" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E36" s="1" t="s">
+      <c r="F36" s="1" t="s">
         <v>107</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
@@ -2088,15 +2025,15 @@
         <v>110</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>5</v>
+        <v>111</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>3</v>
@@ -2105,18 +2042,18 @@
         <v>4</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>5</v>
+        <v>107</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>3</v>
@@ -2125,18 +2062,18 @@
         <v>4</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>74</v>
+        <v>5</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>3</v>
@@ -2145,10 +2082,10 @@
         <v>4</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>120</v>
+        <v>5</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
@@ -2168,7 +2105,7 @@
         <v>123</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>74</v>
+        <v>5</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
@@ -2202,10 +2139,10 @@
         <v>3</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>129</v>
+        <v>4</v>
       </c>
       <c r="F43" s="1" t="s">
         <v>5</v>
@@ -2213,19 +2150,19 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B44" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="B44" s="1" t="s">
-        <v>131</v>
-      </c>
       <c r="C44" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>132</v>
+        <v>8</v>
       </c>
       <c r="F44" s="1" t="s">
         <v>5</v>
@@ -2233,19 +2170,19 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>135</v>
+        <v>13</v>
       </c>
       <c r="F45" s="1" t="s">
         <v>5</v>
@@ -2253,10 +2190,10 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>3</v>
@@ -2265,7 +2202,7 @@
         <v>8</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F46" s="1" t="s">
         <v>5</v>
@@ -2273,10 +2210,10 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>3</v>
@@ -2285,7 +2222,7 @@
         <v>8</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="F47" s="1" t="s">
         <v>5</v>
@@ -2293,10 +2230,10 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>3</v>
@@ -2305,7 +2242,7 @@
         <v>8</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="F48" s="1" t="s">
         <v>5</v>
@@ -2313,10 +2250,10 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>3</v>
@@ -2325,18 +2262,18 @@
         <v>8</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>5</v>
+        <v>111</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>3</v>
@@ -2345,27 +2282,27 @@
         <v>8</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>5</v>
+        <v>107</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="F51" s="1" t="s">
         <v>5</v>
@@ -2373,50 +2310,50 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D52" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E52" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E52" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="F52" s="1" t="s">
-        <v>120</v>
+        <v>5</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>74</v>
+        <v>5</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>3</v>
@@ -2425,7 +2362,7 @@
         <v>13</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F54" s="1" t="s">
         <v>5</v>
@@ -2433,10 +2370,10 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>3</v>
@@ -2445,7 +2382,7 @@
         <v>13</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="F55" s="1" t="s">
         <v>5</v>
@@ -2453,10 +2390,10 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>3</v>
@@ -2465,7 +2402,7 @@
         <v>13</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="F56" s="1" t="s">
         <v>5</v>
@@ -2473,10 +2410,10 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>3</v>
@@ -2485,7 +2422,7 @@
         <v>13</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="F57" s="1" t="s">
         <v>5</v>
@@ -2493,19 +2430,19 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="F58" s="1" t="s">
         <v>5</v>
@@ -2513,19 +2450,19 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="F59" s="1" t="s">
         <v>5</v>
@@ -2533,19 +2470,19 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D60" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E60" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="E60" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="F60" s="1" t="s">
         <v>5</v>
@@ -2553,10 +2490,10 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>3</v>
@@ -2565,7 +2502,7 @@
         <v>16</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F61" s="1" t="s">
         <v>5</v>
@@ -2573,10 +2510,10 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>3</v>
@@ -2585,7 +2522,7 @@
         <v>16</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="F62" s="1" t="s">
         <v>5</v>
@@ -2593,10 +2530,10 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>3</v>
@@ -2605,7 +2542,7 @@
         <v>16</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="F63" s="1" t="s">
         <v>5</v>
@@ -2613,10 +2550,10 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>3</v>
@@ -2625,7 +2562,7 @@
         <v>16</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="F64" s="1" t="s">
         <v>5</v>
@@ -2633,19 +2570,19 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="F65" s="1" t="s">
         <v>5</v>
@@ -2653,19 +2590,19 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="F66" s="1" t="s">
         <v>5</v>
@@ -2673,19 +2610,19 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="F67" s="1" t="s">
         <v>5</v>
@@ -2693,10 +2630,10 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>3</v>
@@ -2705,7 +2642,7 @@
         <v>19</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F68" s="1" t="s">
         <v>5</v>
@@ -2713,10 +2650,10 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>3</v>
@@ -2725,7 +2662,7 @@
         <v>19</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="F69" s="1" t="s">
         <v>5</v>
@@ -2733,10 +2670,10 @@
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>3</v>
@@ -2745,7 +2682,7 @@
         <v>19</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="F70" s="1" t="s">
         <v>5</v>
@@ -2753,10 +2690,10 @@
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>3</v>
@@ -2765,7 +2702,7 @@
         <v>19</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="F71" s="1" t="s">
         <v>5</v>
@@ -2773,10 +2710,10 @@
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>3</v>
@@ -2785,7 +2722,7 @@
         <v>19</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="F72" s="1" t="s">
         <v>5</v>
@@ -2793,10 +2730,10 @@
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>3</v>
@@ -2805,18 +2742,18 @@
         <v>19</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>5</v>
+        <v>107</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>3</v>
@@ -2825,7 +2762,7 @@
         <v>19</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F74" s="1" t="s">
         <v>5</v>
@@ -2833,10 +2770,10 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>3</v>
@@ -2845,7 +2782,7 @@
         <v>19</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F75" s="1" t="s">
         <v>5</v>
@@ -2853,10 +2790,10 @@
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>3</v>
@@ -2865,18 +2802,18 @@
         <v>19</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>5</v>
+        <v>107</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>3</v>
@@ -2885,7 +2822,7 @@
         <v>19</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F77" s="1" t="s">
         <v>5</v>
@@ -2893,10 +2830,10 @@
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>3</v>
@@ -2905,7 +2842,7 @@
         <v>19</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F78" s="1" t="s">
         <v>5</v>
@@ -2913,10 +2850,10 @@
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>3</v>
@@ -2925,18 +2862,18 @@
         <v>19</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>74</v>
+        <v>5</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>3</v>
@@ -2945,7 +2882,7 @@
         <v>19</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="F80" s="1" t="s">
         <v>5</v>
@@ -2953,10 +2890,10 @@
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>3</v>
@@ -2965,7 +2902,7 @@
         <v>19</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="F81" s="1" t="s">
         <v>5</v>
@@ -2973,10 +2910,10 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>3</v>
@@ -2985,18 +2922,18 @@
         <v>19</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>5</v>
+        <v>107</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>3</v>
@@ -3005,18 +2942,18 @@
         <v>19</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>5</v>
+        <v>107</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>3</v>
@@ -3025,47 +2962,47 @@
         <v>19</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>74</v>
+        <v>5</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="F85" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A86" s="1" t="s">
-        <v>216</v>
+      <c r="A86" s="1">
+        <v>20126490</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>217</v>
+        <v>2</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D86" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E86" s="1" t="s">
-        <v>19</v>
+        <v>283</v>
+      </c>
+      <c r="D86" s="1">
+        <v>6</v>
+      </c>
+      <c r="E86" s="1">
+        <v>2</v>
       </c>
       <c r="F86" s="1" t="s">
         <v>5</v>
@@ -3073,39 +3010,39 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>5</v>
+        <v>58</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="F88" s="1" t="s">
         <v>5</v>
@@ -3113,19 +3050,19 @@
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D89" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E89" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="E89" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="F89" s="1" t="s">
         <v>5</v>
@@ -3133,79 +3070,79 @@
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="E90" s="1" t="s">
         <v>24</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>5</v>
+        <v>58</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>74</v>
+        <v>5</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>74</v>
+        <v>5</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="F93" s="1" t="s">
         <v>5</v>
@@ -3213,16 +3150,16 @@
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E94" s="1" t="s">
         <v>4</v>
@@ -3233,39 +3170,39 @@
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="C95" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>58</v>
+        <v>5</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="F96" s="1" t="s">
         <v>5</v>
@@ -3273,19 +3210,19 @@
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="F97" s="1" t="s">
         <v>5</v>
@@ -3293,39 +3230,39 @@
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>58</v>
+        <v>5</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="F99" s="1" t="s">
         <v>5</v>
@@ -3333,19 +3270,19 @@
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="F100" s="1" t="s">
         <v>5</v>
@@ -3353,10 +3290,10 @@
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>3</v>
@@ -3365,7 +3302,7 @@
         <v>27</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="F101" s="1" t="s">
         <v>5</v>
@@ -3373,10 +3310,10 @@
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="C102" s="1" t="s">
         <v>3</v>
@@ -3385,7 +3322,7 @@
         <v>27</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="F102" s="1" t="s">
         <v>5</v>
@@ -3393,10 +3330,10 @@
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="C103" s="1" t="s">
         <v>3</v>
@@ -3405,7 +3342,7 @@
         <v>27</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="F103" s="1" t="s">
         <v>5</v>
@@ -3413,10 +3350,10 @@
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="C104" s="1" t="s">
         <v>3</v>
@@ -3425,7 +3362,7 @@
         <v>27</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="F104" s="1" t="s">
         <v>5</v>
@@ -3433,10 +3370,10 @@
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="C105" s="1" t="s">
         <v>3</v>
@@ -3445,7 +3382,7 @@
         <v>27</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="F105" s="1" t="s">
         <v>5</v>
@@ -3453,10 +3390,10 @@
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="C106" s="1" t="s">
         <v>3</v>
@@ -3465,18 +3402,18 @@
         <v>27</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>5</v>
+        <v>107</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="C107" s="1" t="s">
         <v>3</v>
@@ -3485,7 +3422,7 @@
         <v>27</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="F107" s="1" t="s">
         <v>5</v>
@@ -3493,10 +3430,10 @@
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="C108" s="1" t="s">
         <v>3</v>
@@ -3505,7 +3442,7 @@
         <v>27</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="F108" s="1" t="s">
         <v>5</v>
@@ -3513,10 +3450,10 @@
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="C109" s="1" t="s">
         <v>3</v>
@@ -3525,7 +3462,7 @@
         <v>27</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F109" s="1" t="s">
         <v>5</v>
@@ -3533,10 +3470,10 @@
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="C110" s="1" t="s">
         <v>3</v>
@@ -3545,18 +3482,18 @@
         <v>27</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>5</v>
+        <v>58</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="C111" s="1" t="s">
         <v>3</v>
@@ -3565,7 +3502,7 @@
         <v>27</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F111" s="1" t="s">
         <v>5</v>
@@ -3573,10 +3510,10 @@
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="C112" s="1" t="s">
         <v>3</v>
@@ -3585,7 +3522,7 @@
         <v>27</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F112" s="1" t="s">
         <v>5</v>
@@ -3593,10 +3530,10 @@
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="C113" s="1" t="s">
         <v>3</v>
@@ -3605,7 +3542,7 @@
         <v>27</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="F113" s="1" t="s">
         <v>5</v>
@@ -3613,10 +3550,10 @@
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="C114" s="1" t="s">
         <v>3</v>
@@ -3625,18 +3562,18 @@
         <v>27</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>74</v>
+        <v>5</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="C115" s="1" t="s">
         <v>3</v>
@@ -3645,7 +3582,7 @@
         <v>27</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="F115" s="1" t="s">
         <v>5</v>
@@ -3653,10 +3590,10 @@
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="C116" s="1" t="s">
         <v>3</v>
@@ -3665,7 +3602,7 @@
         <v>27</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="F116" s="1" t="s">
         <v>5</v>
@@ -3673,10 +3610,10 @@
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="C117" s="1" t="s">
         <v>3</v>
@@ -3685,7 +3622,7 @@
         <v>27</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="F117" s="1" t="s">
         <v>5</v>
@@ -3693,10 +3630,10 @@
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="C118" s="1" t="s">
         <v>3</v>
@@ -3705,18 +3642,18 @@
         <v>27</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>58</v>
+        <v>5</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="C119" s="1" t="s">
         <v>3</v>
@@ -3725,7 +3662,7 @@
         <v>27</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="F119" s="1" t="s">
         <v>5</v>
@@ -3733,10 +3670,10 @@
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="C120" s="1" t="s">
         <v>3</v>
@@ -3745,7 +3682,7 @@
         <v>27</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="F120" s="1" t="s">
         <v>5</v>
@@ -3753,10 +3690,10 @@
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="C121" s="1" t="s">
         <v>3</v>
@@ -3765,189 +3702,9 @@
         <v>27</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A122" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="B122" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="C122" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D122" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E122" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F122" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A123" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="B123" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="C123" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D123" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E123" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F123" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A124" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="B124" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="C124" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D124" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E124" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F124" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A125" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="B125" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="C125" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D125" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E125" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F125" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A126" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="B126" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="C126" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D126" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E126" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F126" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A127" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="B127" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="C127" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D127" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E127" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F127" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A128" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="B128" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="C128" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D128" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E128" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F128" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A129" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="B129" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="C129" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D129" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E129" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F129" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A131">
-        <v>20126490</v>
-      </c>
-      <c r="B131" t="s">
-        <v>2</v>
-      </c>
-      <c r="C131" t="s">
-        <v>304</v>
-      </c>
-      <c r="D131">
-        <v>6</v>
-      </c>
-      <c r="E131">
-        <v>2</v>
-      </c>
-      <c r="F131" t="s">
         <v>5</v>
       </c>
     </row>
